--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC92-EQUIPO RADIO DISTAL AV  ACERO #2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC92-EQUIPO RADIO DISTAL AV  ACERO #2.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043D6E78-3FF0-45B9-A616-3C4CC1D464AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D580E93C-F71E-458E-91A3-A28B2EFBA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="105" windowWidth="11070" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INQUIORT!$B$1:$H$145</definedName>
-    <definedName name="XINQ">INQUIORT!$B$23:$D$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INQUIORT!$B$1:$H$143</definedName>
+    <definedName name="XINQ">INQUIORT!$B$23:$D$80</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="215">
   <si>
     <t>PRECIO TOTAL</t>
   </si>
@@ -462,9 +462,6 @@
     <t>TORNILLO DE BLOQUEO 2.4*20mm ACERO</t>
   </si>
   <si>
-    <t>201215587</t>
-  </si>
-  <si>
     <t xml:space="preserve">TORNILLO DE BLOQUEO 2.4*22mm ACERO </t>
   </si>
   <si>
@@ -562,9 +559,6 @@
   </si>
   <si>
     <t>0915987635</t>
-  </si>
-  <si>
-    <t>210330068</t>
   </si>
   <si>
     <t xml:space="preserve">ENTREGADO </t>
@@ -769,9 +763,6 @@
     <t>N2306000640</t>
   </si>
   <si>
-    <t>N2306000642</t>
-  </si>
-  <si>
     <t xml:space="preserve">N2306000639 </t>
   </si>
   <si>
@@ -779,6 +770,12 @@
   </si>
   <si>
     <t>N2306000651</t>
+  </si>
+  <si>
+    <t>210126712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2306000642 </t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1255,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1506,10 +1503,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" readingOrder="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment readingOrder="1"/>
@@ -1612,13 +1605,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1667,6 +1653,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2056,16 +2060,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J170"/>
+  <dimension ref="B1:J168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="12"/>
-    <col min="2" max="2" width="23.28515625" style="109" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="108" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="97.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -2454,7 +2458,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="15" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B1" s="93"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
@@ -2463,55 +2467,55 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="2:8" s="15" customFormat="1" ht="21" thickBot="1">
-      <c r="B2" s="94"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="57"/>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="138"/>
+      <c r="F2" s="135"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:8" s="15" customFormat="1" ht="21" thickBot="1">
-      <c r="B3" s="95"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="58"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="112"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="111"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:8" s="15" customFormat="1" ht="21" thickBot="1">
-      <c r="B4" s="95"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="58"/>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="137" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="143"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="96"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="145"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="142"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="97"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2520,13 +2524,13 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" ht="27" customHeight="1">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="61">
         <f ca="1">NOW()</f>
-        <v>45390.664490972224</v>
+        <v>45397.748997916664</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>40</v>
@@ -2538,7 +2542,7 @@
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -2547,24 +2551,24 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="33" customHeight="1">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="65" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="99"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
@@ -2573,24 +2577,24 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="67" t="s">
+      <c r="E11" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>133</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>134</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="99"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
@@ -2599,24 +2603,24 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="27" customHeight="1">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="99"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
@@ -2625,7 +2629,7 @@
       <c r="H14" s="27"/>
     </row>
     <row r="15" spans="2:8" ht="31.5" customHeight="1">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="97" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="60"/>
@@ -2636,13 +2640,13 @@
         <v>46</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
@@ -2651,12 +2655,12 @@
       <c r="H16" s="27"/>
     </row>
     <row r="17" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="97" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="73"/>
@@ -2664,7 +2668,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="99"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
@@ -2673,24 +2677,24 @@
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="F19" s="71" t="s">
         <v>140</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>141</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="99"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
@@ -2699,12 +2703,12 @@
       <c r="H20" s="30"/>
     </row>
     <row r="21" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B21" s="98" t="s">
-        <v>142</v>
+      <c r="B21" s="97" t="s">
+        <v>141</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="75"/>
       <c r="F21" s="76"/>
@@ -2712,7 +2716,7 @@
       <c r="H21" s="30"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="100"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="54"/>
       <c r="D22" s="53"/>
       <c r="E22" s="11"/>
@@ -2721,11 +2725,11 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="100" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>51</v>
@@ -2748,7 +2752,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="85" t="s">
         <v>83</v>
@@ -2757,11 +2761,11 @@
         <v>1</v>
       </c>
       <c r="F24" s="33"/>
-      <c r="G24" s="117">
+      <c r="G24" s="116">
         <v>450</v>
       </c>
-      <c r="H24" s="117">
-        <f t="shared" ref="H24:H75" si="0">+E24*G24</f>
+      <c r="H24" s="116">
+        <f t="shared" ref="H24:H73" si="0">+E24*G24</f>
         <v>450</v>
       </c>
     </row>
@@ -2770,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="86" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="D25" s="87" t="s">
         <v>84</v>
@@ -2779,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="33"/>
-      <c r="G25" s="117">
+      <c r="G25" s="116">
         <v>450</v>
       </c>
-      <c r="H25" s="117">
+      <c r="H25" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -2801,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="33"/>
-      <c r="G26" s="117">
+      <c r="G26" s="116">
         <v>450</v>
       </c>
-      <c r="H26" s="117">
+      <c r="H26" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" s="87" t="s">
         <v>86</v>
@@ -2823,17 +2827,17 @@
         <v>1</v>
       </c>
       <c r="F27" s="33"/>
-      <c r="G27" s="117">
+      <c r="G27" s="116">
         <v>450</v>
       </c>
-      <c r="H27" s="117">
+      <c r="H27" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
     <row r="28" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="87"/>
@@ -2842,8 +2846,8 @@
         <v>4</v>
       </c>
       <c r="F28" s="33"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
     </row>
     <row r="29" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="84" t="s">
@@ -2859,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="33"/>
-      <c r="G29" s="117">
+      <c r="G29" s="116">
         <v>450</v>
       </c>
-      <c r="H29" s="117">
+      <c r="H29" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D30" s="87" t="s">
         <v>89</v>
@@ -2881,10 +2885,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="33"/>
-      <c r="G30" s="117">
+      <c r="G30" s="116">
         <v>450</v>
       </c>
-      <c r="H30" s="117">
+      <c r="H30" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -2903,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="117">
+      <c r="G31" s="116">
         <v>450</v>
       </c>
-      <c r="H31" s="117">
+      <c r="H31" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32" s="87" t="s">
         <v>91</v>
@@ -2925,17 +2929,17 @@
         <v>1</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="117">
+      <c r="G32" s="116">
         <v>450</v>
       </c>
-      <c r="H32" s="117">
+      <c r="H32" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
     <row r="33" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="86"/>
       <c r="D33" s="87"/>
@@ -2944,8 +2948,8 @@
         <v>4</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
     </row>
     <row r="34" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="84" t="s">
@@ -2961,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="33"/>
-      <c r="G34" s="117">
+      <c r="G34" s="116">
         <v>450</v>
       </c>
-      <c r="H34" s="117">
+      <c r="H34" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D35" s="87" t="s">
         <v>93</v>
@@ -2983,10 +2987,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="117">
+      <c r="G35" s="116">
         <v>450</v>
       </c>
-      <c r="H35" s="117">
+      <c r="H35" s="116">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -3005,17 +3009,17 @@
         <v>1</v>
       </c>
       <c r="F36" s="35"/>
-      <c r="G36" s="118">
+      <c r="G36" s="117">
         <v>40</v>
       </c>
-      <c r="H36" s="117">
+      <c r="H36" s="116">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C37" s="86">
         <v>200112893</v>
@@ -3027,17 +3031,17 @@
         <v>1</v>
       </c>
       <c r="F37" s="35"/>
-      <c r="G37" s="118">
+      <c r="G37" s="117">
         <v>40</v>
       </c>
-      <c r="H37" s="117">
+      <c r="H37" s="116">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="86"/>
       <c r="D38" s="87"/>
@@ -3046,1021 +3050,1001 @@
         <v>4</v>
       </c>
       <c r="F38" s="35"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="116"/>
     </row>
     <row r="39" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="88">
+      <c r="C39" s="145">
         <v>190805984</v>
       </c>
       <c r="D39" s="89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E39" s="77">
         <v>1</v>
       </c>
       <c r="F39" s="35"/>
-      <c r="G39" s="118">
+      <c r="G39" s="117">
         <v>40</v>
       </c>
-      <c r="H39" s="117">
+      <c r="H39" s="116">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:8" s="34" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="145" t="s">
         <v>96</v>
       </c>
       <c r="D40" s="89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E40" s="77">
         <v>1</v>
       </c>
       <c r="F40" s="35"/>
-      <c r="G40" s="118">
+      <c r="G40" s="117">
         <v>40</v>
       </c>
-      <c r="H40" s="117">
+      <c r="H40" s="116">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:8" s="34" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B41" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="130">
+      <c r="B41" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="146">
         <v>221254855</v>
       </c>
       <c r="D41" s="89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E41" s="77">
         <v>1</v>
       </c>
       <c r="F41" s="35"/>
-      <c r="G41" s="118">
+      <c r="G41" s="117">
         <v>40</v>
       </c>
-      <c r="H41" s="117">
+      <c r="H41" s="116">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8" s="34" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B42" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="90"/>
+      <c r="B42" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="147"/>
       <c r="D42" s="79"/>
       <c r="E42" s="80">
         <f>SUM(E39:E41)</f>
         <v>3</v>
       </c>
       <c r="F42" s="35"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="116"/>
     </row>
     <row r="43" spans="2:8" s="34" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="90">
+      <c r="C43" s="147">
         <v>220545208</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E43" s="81">
         <v>1</v>
       </c>
       <c r="F43" s="35"/>
-      <c r="G43" s="118">
+      <c r="G43" s="117">
         <v>40</v>
       </c>
-      <c r="H43" s="117">
+      <c r="H43" s="116">
         <f>+E37*G43</f>
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8" s="34" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B44" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>119</v>
+      <c r="B44" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="145" t="s">
+        <v>118</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E44" s="81">
         <v>0</v>
       </c>
       <c r="F44" s="35"/>
-      <c r="G44" s="118">
+      <c r="G44" s="117">
         <v>40</v>
       </c>
-      <c r="H44" s="117">
+      <c r="H44" s="116">
         <f>+E38*G44</f>
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="2:8" s="34" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="90" t="s">
-        <v>120</v>
+      <c r="C45" s="147" t="s">
+        <v>119</v>
       </c>
       <c r="D45" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" s="81">
         <v>1</v>
       </c>
       <c r="F45" s="35"/>
-      <c r="G45" s="118">
+      <c r="G45" s="117">
         <v>40</v>
       </c>
-      <c r="H45" s="117">
+      <c r="H45" s="116">
         <f>+E39*G45</f>
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="88">
+      <c r="C46" s="145">
         <v>220546211</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" s="81">
         <v>0</v>
       </c>
-      <c r="G46" s="118">
+      <c r="G46" s="117">
         <v>40</v>
       </c>
-      <c r="H46" s="117">
+      <c r="H46" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="90">
+      <c r="C47" s="147">
         <v>220546204</v>
       </c>
       <c r="D47" s="79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E47" s="81">
         <v>1</v>
       </c>
       <c r="F47" s="35"/>
-      <c r="G47" s="118">
+      <c r="G47" s="117">
         <v>40</v>
       </c>
-      <c r="H47" s="117">
+      <c r="H47" s="116">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="90" t="s">
-        <v>121</v>
+      <c r="C48" s="147" t="s">
+        <v>120</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E48" s="81">
         <v>1</v>
       </c>
       <c r="F48" s="35"/>
-      <c r="G48" s="118">
+      <c r="G48" s="117">
         <v>40</v>
       </c>
-      <c r="H48" s="117">
+      <c r="H48" s="116">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="90" t="s">
-        <v>122</v>
+      <c r="C49" s="147" t="s">
+        <v>121</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E49" s="81">
         <v>1</v>
       </c>
       <c r="F49" s="35"/>
-      <c r="G49" s="118">
+      <c r="G49" s="117">
         <v>40</v>
       </c>
-      <c r="H49" s="117">
+      <c r="H49" s="116">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I49" s="133"/>
+      <c r="I49" s="130"/>
     </row>
     <row r="50" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="82"/>
+      <c r="B50" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="148"/>
       <c r="D50" s="82"/>
       <c r="E50" s="83">
         <f>SUM(E43:E49)</f>
         <v>5</v>
       </c>
       <c r="F50" s="36"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
     </row>
     <row r="51" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="145">
+        <v>221153330</v>
+      </c>
+      <c r="D51" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="81">
+        <v>1</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="116">
+        <v>0</v>
+      </c>
+      <c r="H51" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="145">
+        <v>221153330</v>
+      </c>
+      <c r="D52" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="81">
+        <v>1</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="116">
+        <v>0</v>
+      </c>
+      <c r="H52" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="145" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="81">
+        <v>1</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="116">
+        <v>0</v>
+      </c>
+      <c r="H53" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="88">
-        <v>210532192</v>
-      </c>
-      <c r="D51" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="81">
-        <v>1</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="117">
-        <v>0</v>
-      </c>
-      <c r="H51" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="88">
-        <v>221153330</v>
-      </c>
-      <c r="D52" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="81">
-        <v>1</v>
-      </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="117">
-        <v>0</v>
-      </c>
-      <c r="H52" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="81">
-        <v>1</v>
-      </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="117">
-        <v>0</v>
-      </c>
-      <c r="H53" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="88">
+      <c r="C54" s="145">
         <v>2306000650</v>
       </c>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="90" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="81">
         <v>2</v>
       </c>
       <c r="F54" s="38"/>
-      <c r="G54" s="117">
-        <v>0</v>
-      </c>
-      <c r="H54" s="117">
+      <c r="G54" s="116">
+        <v>0</v>
+      </c>
+      <c r="H54" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="105" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="D55" s="91" t="s">
+      <c r="B55" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="145" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="90" t="s">
         <v>100</v>
       </c>
       <c r="E55" s="81">
         <v>2</v>
       </c>
       <c r="F55" s="38"/>
-      <c r="G55" s="117">
-        <v>0</v>
-      </c>
-      <c r="H55" s="117">
+      <c r="G55" s="116">
+        <v>0</v>
+      </c>
+      <c r="H55" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="C56" s="88" t="s">
+      <c r="B56" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="91" t="s">
+      <c r="D56" s="90" t="s">
         <v>101</v>
       </c>
       <c r="E56" s="81">
         <v>2</v>
       </c>
       <c r="F56" s="38"/>
-      <c r="G56" s="117">
-        <v>0</v>
-      </c>
-      <c r="H56" s="117">
+      <c r="G56" s="116">
+        <v>0</v>
+      </c>
+      <c r="H56" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" s="88" t="s">
+      <c r="B57" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="91" t="s">
+      <c r="D57" s="90" t="s">
         <v>102</v>
       </c>
       <c r="E57" s="81">
         <v>2</v>
       </c>
       <c r="F57" s="38"/>
-      <c r="G57" s="117">
-        <v>0</v>
-      </c>
-      <c r="H57" s="117">
+      <c r="G57" s="116">
+        <v>0</v>
+      </c>
+      <c r="H57" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" s="88" t="s">
+      <c r="B58" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="91" t="s">
+      <c r="D58" s="90" t="s">
         <v>103</v>
       </c>
       <c r="E58" s="88">
         <v>2</v>
       </c>
       <c r="F58" s="38"/>
-      <c r="G58" s="117">
-        <v>0</v>
-      </c>
-      <c r="H58" s="117">
+      <c r="G58" s="116">
+        <v>0</v>
+      </c>
+      <c r="H58" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="107" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" s="88">
+      <c r="B59" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="145">
         <v>2306000655</v>
       </c>
-      <c r="D59" s="91" t="s">
-        <v>156</v>
+      <c r="D59" s="90" t="s">
+        <v>154</v>
       </c>
       <c r="E59" s="88">
         <v>2</v>
       </c>
       <c r="F59" s="38"/>
-      <c r="G59" s="117">
-        <v>0</v>
-      </c>
-      <c r="H59" s="117">
+      <c r="G59" s="116">
+        <v>0</v>
+      </c>
+      <c r="H59" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="107" t="s">
-        <v>194</v>
-      </c>
-      <c r="C60" s="88">
+      <c r="B60" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="145">
         <v>2306000656</v>
       </c>
-      <c r="D60" s="91" t="s">
-        <v>157</v>
+      <c r="D60" s="90" t="s">
+        <v>155</v>
       </c>
       <c r="E60" s="88">
         <v>2</v>
       </c>
       <c r="F60" s="38"/>
-      <c r="G60" s="117">
-        <v>0</v>
-      </c>
-      <c r="H60" s="117">
+      <c r="G60" s="116">
+        <v>0</v>
+      </c>
+      <c r="H60" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="88">
+      <c r="B61" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="145">
         <v>2306000657</v>
       </c>
-      <c r="D61" s="91" t="s">
-        <v>158</v>
+      <c r="D61" s="90" t="s">
+        <v>156</v>
       </c>
       <c r="E61" s="88">
         <v>2</v>
       </c>
       <c r="F61" s="38"/>
-      <c r="G61" s="117">
-        <v>0</v>
-      </c>
-      <c r="H61" s="117">
+      <c r="G61" s="116">
+        <v>0</v>
+      </c>
+      <c r="H61" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I61" s="133"/>
+      <c r="I61" s="130"/>
     </row>
     <row r="62" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="92">
+      <c r="B62" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="145"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="91">
         <f>SUM(E51:E61)</f>
         <v>19</v>
       </c>
       <c r="F62" s="38"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="117"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="116"/>
     </row>
     <row r="63" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="105" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="91" t="s">
+      <c r="B63" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="90" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="81">
         <v>10</v>
       </c>
       <c r="F63" s="38"/>
-      <c r="G63" s="134">
-        <v>0</v>
-      </c>
-      <c r="H63" s="117">
+      <c r="G63" s="131">
+        <v>0</v>
+      </c>
+      <c r="H63" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" s="88">
+      <c r="B64" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="145">
         <v>220546882</v>
       </c>
-      <c r="D64" s="91" t="s">
+      <c r="D64" s="90" t="s">
         <v>105</v>
       </c>
       <c r="E64" s="81">
         <v>9</v>
       </c>
       <c r="F64" s="38"/>
-      <c r="G64" s="134">
-        <v>0</v>
-      </c>
-      <c r="H64" s="117">
+      <c r="G64" s="131">
+        <v>0</v>
+      </c>
+      <c r="H64" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="105" t="s">
+      <c r="B65" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="145" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="81">
+        <v>1</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="116"/>
+    </row>
+    <row r="66" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B66" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="145" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="81">
+        <v>10</v>
+      </c>
+      <c r="F66" s="35"/>
+      <c r="G66" s="131">
+        <v>0</v>
+      </c>
+      <c r="H66" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="104"/>
+    </row>
+    <row r="67" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="88" t="s">
-        <v>213</v>
-      </c>
-      <c r="D65" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="81">
-        <v>1</v>
-      </c>
-      <c r="F65" s="38"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="117"/>
-    </row>
-    <row r="66" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="88">
-        <v>201124042</v>
-      </c>
-      <c r="D66" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="81">
-        <v>6</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="134">
-        <v>0</v>
-      </c>
-      <c r="H66" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" s="91" t="s">
-        <v>106</v>
+      <c r="C67" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="90" t="s">
+        <v>108</v>
       </c>
       <c r="E67" s="81">
         <v>4</v>
       </c>
       <c r="F67" s="35"/>
-      <c r="G67" s="134">
-        <v>0</v>
-      </c>
-      <c r="H67" s="117">
+      <c r="G67" s="131">
+        <v>0</v>
+      </c>
+      <c r="H67" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J67" s="105"/>
     </row>
     <row r="68" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="105" t="s">
+      <c r="B68" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="145">
+        <v>2306000641</v>
+      </c>
+      <c r="D68" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="81">
+        <v>6</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="131">
+        <v>0</v>
+      </c>
+      <c r="H68" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B69" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="145" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="81">
+        <v>10</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="131">
+        <v>0</v>
+      </c>
+      <c r="H69" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B70" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="81">
-        <v>4</v>
-      </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="134">
-        <v>0</v>
-      </c>
-      <c r="H68" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B69" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="C69" s="88">
-        <v>2306000641</v>
-      </c>
-      <c r="D69" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="81">
-        <v>6</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="134">
-        <v>0</v>
-      </c>
-      <c r="H69" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B70" s="105" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="91" t="s">
-        <v>109</v>
+      <c r="C70" s="145">
+        <v>220546886</v>
+      </c>
+      <c r="D70" s="90" t="s">
+        <v>110</v>
       </c>
       <c r="E70" s="81">
         <v>10</v>
       </c>
       <c r="F70" s="35"/>
-      <c r="G70" s="134">
-        <v>0</v>
-      </c>
-      <c r="H70" s="117">
+      <c r="G70" s="131">
+        <v>0</v>
+      </c>
+      <c r="H70" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B71" s="105" t="s">
+      <c r="B71" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="81">
+        <v>10</v>
+      </c>
+      <c r="F71" s="39"/>
+      <c r="G71" s="131">
+        <v>0</v>
+      </c>
+      <c r="H71" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="81">
-        <v>1</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="134">
-        <v>0</v>
-      </c>
-      <c r="H71" s="117">
+      <c r="C72" s="145" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="81">
+        <v>12</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="131">
+        <v>0</v>
+      </c>
+      <c r="H72" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="88">
-        <v>220546886</v>
-      </c>
-      <c r="D72" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="81">
-        <v>9</v>
-      </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="134">
-        <v>0</v>
-      </c>
-      <c r="H72" s="117">
+    <row r="73" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="145" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="81">
+        <v>12</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="131">
+        <v>0</v>
+      </c>
+      <c r="H73" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="81">
-        <v>10</v>
-      </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="134">
-        <v>0</v>
-      </c>
-      <c r="H73" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="74" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B74" s="105" t="s">
+      <c r="B74" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="91" t="s">
-        <v>115</v>
+      <c r="C74" s="149">
+        <v>2306000647</v>
+      </c>
+      <c r="D74" s="90" t="s">
+        <v>157</v>
       </c>
       <c r="E74" s="81">
         <v>12</v>
       </c>
       <c r="F74" s="20"/>
-      <c r="G74" s="134">
-        <v>0</v>
-      </c>
-      <c r="H74" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G74" s="119"/>
+      <c r="H74" s="116"/>
     </row>
     <row r="75" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B75" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="81">
-        <v>12</v>
+      <c r="B75" s="104"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="80">
+        <f>SUM(E63:E74)</f>
+        <v>106</v>
       </c>
       <c r="F75" s="20"/>
-      <c r="G75" s="134">
-        <v>0</v>
-      </c>
-      <c r="H75" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G75" s="119"/>
+      <c r="H75" s="116"/>
     </row>
     <row r="76" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" s="131">
-        <v>2306000647</v>
-      </c>
-      <c r="D76" s="91" t="s">
+      <c r="B76" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="145">
+        <v>210431404</v>
+      </c>
+      <c r="D76" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="81">
+        <v>3</v>
+      </c>
+      <c r="F76" s="40"/>
+      <c r="G76" s="131">
+        <v>0</v>
+      </c>
+      <c r="H76" s="116">
+        <f t="shared" ref="H76:H79" si="1">+E76*G76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="145">
+        <v>210936625</v>
+      </c>
+      <c r="D77" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" s="81">
+        <v>3</v>
+      </c>
+      <c r="F77" s="40"/>
+      <c r="G77" s="131">
+        <v>0</v>
+      </c>
+      <c r="H77" s="116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B78" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="145">
+        <v>201023154</v>
+      </c>
+      <c r="D78" s="90" t="s">
         <v>159</v>
-      </c>
-      <c r="E76" s="81">
-        <v>12</v>
-      </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="120"/>
-      <c r="H76" s="117"/>
-    </row>
-    <row r="77" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="105"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="80">
-        <f>SUM(E63:E76)</f>
-        <v>106</v>
-      </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="120"/>
-      <c r="H77" s="117"/>
-    </row>
-    <row r="78" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B78" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="88">
-        <v>210431404</v>
-      </c>
-      <c r="D78" s="91" t="s">
-        <v>116</v>
       </c>
       <c r="E78" s="81">
         <v>3</v>
       </c>
       <c r="F78" s="40"/>
-      <c r="G78" s="134">
-        <v>0</v>
-      </c>
-      <c r="H78" s="117">
-        <f t="shared" ref="H78:H81" si="1">+E78*G78</f>
+      <c r="G78" s="131">
+        <v>0</v>
+      </c>
+      <c r="H78" s="116">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B79" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="88">
-        <v>210936625</v>
-      </c>
-      <c r="D79" s="91" t="s">
+      <c r="B79" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="145">
+        <v>2308003047</v>
+      </c>
+      <c r="D79" s="90" t="s">
         <v>160</v>
       </c>
       <c r="E79" s="81">
         <v>3</v>
       </c>
       <c r="F79" s="40"/>
-      <c r="G79" s="134">
-        <v>0</v>
-      </c>
-      <c r="H79" s="117">
+      <c r="G79" s="131">
+        <v>0</v>
+      </c>
+      <c r="H79" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B80" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="88">
-        <v>201023154</v>
-      </c>
-      <c r="D80" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="E80" s="81">
-        <v>3</v>
+      <c r="B80" s="104"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="80">
+        <f>SUM(E76:E79)</f>
+        <v>12</v>
       </c>
       <c r="F80" s="40"/>
-      <c r="G80" s="134">
-        <v>0</v>
-      </c>
-      <c r="H80" s="117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G80" s="119"/>
+      <c r="H80" s="116"/>
     </row>
     <row r="81" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B81" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="88">
-        <v>2308003047</v>
-      </c>
-      <c r="D81" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="E81" s="81">
-        <v>3</v>
-      </c>
-      <c r="F81" s="40"/>
-      <c r="G81" s="134">
-        <v>0</v>
-      </c>
-      <c r="H81" s="117">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B81" s="107"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="43">
+        <f>SUM(H24:H80)</f>
+        <v>5060</v>
       </c>
     </row>
     <row r="82" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B82" s="105"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="80">
-        <f>SUM(E78:E81)</f>
-        <v>12</v>
-      </c>
-      <c r="F82" s="40"/>
-      <c r="G82" s="120"/>
-      <c r="H82" s="117"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="H82" s="44">
+        <f>+H81*0.12</f>
+        <v>607.19999999999993</v>
+      </c>
     </row>
     <row r="83" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B83" s="108"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="2"/>
       <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="41"/>
-      <c r="G83" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="H83" s="43">
-        <f>SUM(H24:H82)</f>
-        <v>5060</v>
+      <c r="G83" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="44">
+        <f>+H81+H82</f>
+        <v>5667.2</v>
       </c>
     </row>
     <row r="84" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B84" s="108"/>
+      <c r="B84" s="107"/>
       <c r="C84" s="2"/>
       <c r="D84" s="4"/>
       <c r="E84" s="2"/>
       <c r="F84" s="41"/>
-      <c r="G84" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="H84" s="44">
-        <f>+H83*0.12</f>
-        <v>607.19999999999993</v>
-      </c>
+      <c r="G84" s="42"/>
+      <c r="H84" s="45"/>
     </row>
     <row r="85" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B85" s="108"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="2"/>
       <c r="D85" s="4"/>
       <c r="E85" s="2"/>
       <c r="F85" s="41"/>
-      <c r="G85" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="H85" s="44">
-        <f>+H83+H84</f>
-        <v>5667.2</v>
-      </c>
+      <c r="G85" s="42"/>
+      <c r="H85" s="45"/>
     </row>
     <row r="86" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B86" s="108"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="2"/>
       <c r="D86" s="4"/>
       <c r="E86" s="2"/>
       <c r="F86" s="41"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="45"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
     </row>
     <row r="87" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="108"/>
+      <c r="B87" s="107"/>
       <c r="C87" s="2"/>
       <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="41"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
     </row>
     <row r="88" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B88" s="108"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="2"/>
+      <c r="C88" s="136" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="136"/>
+      <c r="E88" s="3"/>
       <c r="F88" s="41"/>
       <c r="G88" s="46"/>
       <c r="H88" s="46"/>
     </row>
     <row r="89" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="108"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="2"/>
+      <c r="C89" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="3"/>
       <c r="F89" s="41"/>
       <c r="G89" s="46"/>
       <c r="H89" s="46"/>
     </row>
     <row r="90" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B90" s="109"/>
-      <c r="C90" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="D90" s="139"/>
+      <c r="B90" s="108"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="78" t="s">
+        <v>60</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="41"/>
       <c r="G90" s="46"/>
       <c r="H90" s="46"/>
     </row>
     <row r="91" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B91" s="109"/>
-      <c r="C91" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D91" s="20" t="s">
+      <c r="B91" s="108"/>
+      <c r="C91" s="121">
         <v>2</v>
+      </c>
+      <c r="D91" s="122" t="s">
+        <v>9</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="41"/>
@@ -4068,10 +4052,12 @@
       <c r="H91" s="46"/>
     </row>
     <row r="92" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B92" s="109"/>
-      <c r="C92" s="121"/>
-      <c r="D92" s="78" t="s">
-        <v>60</v>
+      <c r="B92" s="108"/>
+      <c r="C92" s="121">
+        <v>1</v>
+      </c>
+      <c r="D92" s="122" t="s">
+        <v>61</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="41"/>
@@ -4079,64 +4065,64 @@
       <c r="H92" s="46"/>
     </row>
     <row r="93" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B93" s="109"/>
-      <c r="C93" s="122">
-        <v>2</v>
-      </c>
-      <c r="D93" s="123" t="s">
-        <v>9</v>
+      <c r="B93" s="108"/>
+      <c r="C93" s="121">
+        <v>1</v>
+      </c>
+      <c r="D93" s="122" t="s">
+        <v>10</v>
       </c>
       <c r="E93" s="3"/>
-      <c r="F93" s="41"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="46"/>
       <c r="H93" s="46"/>
     </row>
     <row r="94" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B94" s="109"/>
-      <c r="C94" s="122">
-        <v>1</v>
-      </c>
-      <c r="D94" s="123" t="s">
-        <v>61</v>
+      <c r="B94" s="108"/>
+      <c r="C94" s="121">
+        <v>1</v>
+      </c>
+      <c r="D94" s="122" t="s">
+        <v>62</v>
       </c>
       <c r="E94" s="3"/>
-      <c r="F94" s="41"/>
+      <c r="F94" s="3"/>
       <c r="G94" s="46"/>
       <c r="H94" s="46"/>
     </row>
     <row r="95" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B95" s="109"/>
-      <c r="C95" s="122">
-        <v>1</v>
-      </c>
-      <c r="D95" s="123" t="s">
-        <v>10</v>
+      <c r="B95" s="108"/>
+      <c r="C95" s="121">
+        <v>1</v>
+      </c>
+      <c r="D95" s="122" t="s">
+        <v>63</v>
       </c>
       <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
+      <c r="F95" s="41"/>
       <c r="G95" s="46"/>
       <c r="H95" s="46"/>
     </row>
     <row r="96" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B96" s="109"/>
-      <c r="C96" s="122">
+      <c r="B96" s="108"/>
+      <c r="C96" s="77">
         <v>1</v>
       </c>
       <c r="D96" s="123" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="41"/>
       <c r="G96" s="46"/>
       <c r="H96" s="46"/>
     </row>
     <row r="97" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B97" s="109"/>
-      <c r="C97" s="122">
-        <v>1</v>
-      </c>
-      <c r="D97" s="123" t="s">
-        <v>63</v>
+      <c r="B97" s="108"/>
+      <c r="C97" s="121">
+        <v>1</v>
+      </c>
+      <c r="D97" s="124" t="s">
+        <v>64</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="41"/>
@@ -4144,12 +4130,12 @@
       <c r="H97" s="46"/>
     </row>
     <row r="98" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B98" s="109"/>
-      <c r="C98" s="77">
-        <v>1</v>
+      <c r="B98" s="108"/>
+      <c r="C98" s="121">
+        <v>3</v>
       </c>
       <c r="D98" s="124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="41"/>
@@ -4157,12 +4143,12 @@
       <c r="H98" s="46"/>
     </row>
     <row r="99" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B99" s="109"/>
-      <c r="C99" s="122">
-        <v>1</v>
-      </c>
-      <c r="D99" s="125" t="s">
-        <v>64</v>
+      <c r="B99" s="108"/>
+      <c r="C99" s="121">
+        <v>2</v>
+      </c>
+      <c r="D99" s="124" t="s">
+        <v>12</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="41"/>
@@ -4170,12 +4156,12 @@
       <c r="H99" s="46"/>
     </row>
     <row r="100" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B100" s="109"/>
-      <c r="C100" s="122">
-        <v>3</v>
-      </c>
-      <c r="D100" s="125" t="s">
-        <v>13</v>
+      <c r="B100" s="108"/>
+      <c r="C100" s="77">
+        <v>1</v>
+      </c>
+      <c r="D100" s="123" t="s">
+        <v>14</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="41"/>
@@ -4183,12 +4169,12 @@
       <c r="H100" s="46"/>
     </row>
     <row r="101" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B101" s="109"/>
-      <c r="C101" s="122">
-        <v>2</v>
-      </c>
-      <c r="D101" s="125" t="s">
-        <v>12</v>
+      <c r="B101" s="108"/>
+      <c r="C101" s="121">
+        <v>3</v>
+      </c>
+      <c r="D101" s="124" t="s">
+        <v>65</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="41"/>
@@ -4196,12 +4182,12 @@
       <c r="H101" s="46"/>
     </row>
     <row r="102" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B102" s="109"/>
-      <c r="C102" s="77">
-        <v>1</v>
+      <c r="B102" s="108"/>
+      <c r="C102" s="121">
+        <v>2</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="41"/>
@@ -4209,12 +4195,12 @@
       <c r="H102" s="46"/>
     </row>
     <row r="103" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B103" s="109"/>
-      <c r="C103" s="122">
-        <v>3</v>
-      </c>
-      <c r="D103" s="125" t="s">
-        <v>65</v>
+      <c r="B103" s="108"/>
+      <c r="C103" s="77">
+        <v>2</v>
+      </c>
+      <c r="D103" s="123" t="s">
+        <v>16</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="41"/>
@@ -4222,12 +4208,12 @@
       <c r="H103" s="46"/>
     </row>
     <row r="104" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B104" s="109"/>
-      <c r="C104" s="122">
+      <c r="B104" s="108"/>
+      <c r="C104" s="77">
         <v>2</v>
       </c>
-      <c r="D104" s="125" t="s">
-        <v>66</v>
+      <c r="D104" s="123" t="s">
+        <v>15</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="41"/>
@@ -4235,12 +4221,12 @@
       <c r="H104" s="46"/>
     </row>
     <row r="105" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B105" s="109"/>
-      <c r="C105" s="77">
-        <v>2</v>
+      <c r="B105" s="108"/>
+      <c r="C105" s="121">
+        <v>1</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="41"/>
@@ -4248,12 +4234,10 @@
       <c r="H105" s="46"/>
     </row>
     <row r="106" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B106" s="109"/>
-      <c r="C106" s="77">
-        <v>2</v>
-      </c>
+      <c r="B106" s="108"/>
+      <c r="C106" s="121"/>
       <c r="D106" s="124" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="41"/>
@@ -4261,23 +4245,22 @@
       <c r="H106" s="46"/>
     </row>
     <row r="107" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B107" s="109"/>
-      <c r="C107" s="122">
-        <v>1</v>
-      </c>
-      <c r="D107" s="125" t="s">
-        <v>209</v>
-      </c>
+      <c r="B107" s="108"/>
+      <c r="C107" s="125">
+        <f>SUM(C91:C106)</f>
+        <v>24</v>
+      </c>
+      <c r="D107" s="124"/>
       <c r="E107" s="3"/>
       <c r="F107" s="41"/>
       <c r="G107" s="46"/>
       <c r="H107" s="46"/>
     </row>
     <row r="108" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B108" s="109"/>
+      <c r="B108" s="108"/>
       <c r="C108" s="122"/>
       <c r="D108" s="125" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="41"/>
@@ -4285,48 +4268,51 @@
       <c r="H108" s="46"/>
     </row>
     <row r="109" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B109" s="109"/>
-      <c r="C109" s="126">
-        <f>SUM(C93:C108)</f>
-        <v>24</v>
-      </c>
-      <c r="D109" s="125"/>
-      <c r="E109" s="3"/>
+      <c r="B109" s="108"/>
+      <c r="C109" s="121">
+        <v>1</v>
+      </c>
+      <c r="D109" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="4"/>
       <c r="F109" s="41"/>
       <c r="G109" s="46"/>
       <c r="H109" s="46"/>
     </row>
     <row r="110" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B110" s="109"/>
-      <c r="C110" s="123"/>
-      <c r="D110" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="E110" s="3"/>
+      <c r="B110" s="108"/>
+      <c r="C110" s="77">
+        <v>1</v>
+      </c>
+      <c r="D110" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="11"/>
       <c r="F110" s="41"/>
       <c r="G110" s="46"/>
       <c r="H110" s="46"/>
     </row>
     <row r="111" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B111" s="109"/>
-      <c r="C111" s="122">
+      <c r="B111" s="108"/>
+      <c r="C111" s="77">
         <v>1</v>
       </c>
       <c r="D111" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="E111" s="11"/>
       <c r="F111" s="41"/>
       <c r="G111" s="46"/>
       <c r="H111" s="46"/>
     </row>
     <row r="112" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B112" s="109"/>
+      <c r="B112" s="108"/>
       <c r="C112" s="77">
         <v>1</v>
       </c>
-      <c r="D112" s="124" t="s">
-        <v>69</v>
+      <c r="D112" s="123" t="s">
+        <v>4</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="41"/>
@@ -4334,12 +4320,12 @@
       <c r="H112" s="46"/>
     </row>
     <row r="113" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B113" s="109"/>
+      <c r="B113" s="108"/>
       <c r="C113" s="77">
         <v>1</v>
       </c>
-      <c r="D113" s="124" t="s">
-        <v>208</v>
+      <c r="D113" s="123" t="s">
+        <v>70</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="41"/>
@@ -4347,12 +4333,12 @@
       <c r="H113" s="46"/>
     </row>
     <row r="114" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B114" s="109"/>
+      <c r="B114" s="108"/>
       <c r="C114" s="77">
         <v>1</v>
       </c>
-      <c r="D114" s="124" t="s">
-        <v>4</v>
+      <c r="D114" s="123" t="s">
+        <v>81</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="41"/>
@@ -4360,51 +4346,51 @@
       <c r="H114" s="46"/>
     </row>
     <row r="115" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B115" s="109"/>
+      <c r="B115" s="108"/>
       <c r="C115" s="77">
         <v>1</v>
       </c>
-      <c r="D115" s="124" t="s">
-        <v>70</v>
+      <c r="D115" s="123" t="s">
+        <v>5</v>
       </c>
       <c r="E115" s="11"/>
-      <c r="F115" s="41"/>
+      <c r="F115" s="47"/>
       <c r="G115" s="46"/>
       <c r="H115" s="46"/>
     </row>
     <row r="116" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B116" s="109"/>
+      <c r="B116" s="108"/>
       <c r="C116" s="77">
         <v>1</v>
       </c>
-      <c r="D116" s="124" t="s">
-        <v>81</v>
+      <c r="D116" s="123" t="s">
+        <v>6</v>
       </c>
       <c r="E116" s="11"/>
-      <c r="F116" s="41"/>
+      <c r="F116" s="48"/>
       <c r="G116" s="46"/>
       <c r="H116" s="46"/>
     </row>
     <row r="117" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B117" s="109"/>
+      <c r="B117" s="108"/>
       <c r="C117" s="77">
         <v>1</v>
       </c>
-      <c r="D117" s="124" t="s">
-        <v>5</v>
+      <c r="D117" s="123" t="s">
+        <v>7</v>
       </c>
       <c r="E117" s="11"/>
-      <c r="F117" s="47"/>
+      <c r="F117" s="48"/>
       <c r="G117" s="46"/>
       <c r="H117" s="46"/>
     </row>
     <row r="118" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B118" s="109"/>
+      <c r="B118" s="108"/>
       <c r="C118" s="77">
         <v>1</v>
       </c>
-      <c r="D118" s="124" t="s">
-        <v>6</v>
+      <c r="D118" s="123" t="s">
+        <v>71</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="48"/>
@@ -4412,380 +4398,354 @@
       <c r="H118" s="46"/>
     </row>
     <row r="119" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B119" s="109"/>
-      <c r="C119" s="77">
-        <v>1</v>
-      </c>
-      <c r="D119" s="124" t="s">
-        <v>7</v>
+      <c r="B119" s="108"/>
+      <c r="C119" s="121">
+        <v>1</v>
+      </c>
+      <c r="D119" s="123" t="s">
+        <v>72</v>
       </c>
       <c r="E119" s="11"/>
-      <c r="F119" s="48"/>
+      <c r="F119" s="7"/>
       <c r="G119" s="46"/>
       <c r="H119" s="46"/>
     </row>
-    <row r="120" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B120" s="109"/>
+    <row r="120" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="C120" s="77">
-        <v>1</v>
-      </c>
-      <c r="D120" s="124" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+      <c r="D120" s="123" t="s">
+        <v>17</v>
       </c>
       <c r="E120" s="11"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-    </row>
-    <row r="121" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B121" s="109"/>
-      <c r="C121" s="122">
-        <v>1</v>
-      </c>
-      <c r="D121" s="124" t="s">
-        <v>72</v>
+      <c r="F120" s="3"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="50"/>
+    </row>
+    <row r="121" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="C121" s="77">
+        <v>1</v>
+      </c>
+      <c r="D121" s="123" t="s">
+        <v>82</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="C122" s="77">
+        <v>1</v>
+      </c>
+      <c r="D122" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="11"/>
+    </row>
+    <row r="123" spans="2:8" s="15" customFormat="1" ht="18.75">
+      <c r="B123" s="108"/>
+      <c r="C123" s="121">
+        <v>1</v>
+      </c>
+      <c r="D123" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124" spans="2:8" s="15" customFormat="1" ht="18.75">
+      <c r="B124" s="108"/>
+      <c r="C124" s="78">
+        <f>SUM(C109:C123)</f>
+        <v>16</v>
+      </c>
+      <c r="D124" s="123"/>
+      <c r="E124" s="11"/>
+    </row>
+    <row r="125" spans="2:8" s="15" customFormat="1" ht="18.75">
+      <c r="B125" s="108"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="126"/>
+      <c r="E125" s="11"/>
+    </row>
+    <row r="126" spans="2:8" s="15" customFormat="1" ht="18.75">
+      <c r="B126" s="108"/>
+      <c r="C126" s="77">
+        <v>1</v>
+      </c>
+      <c r="D126" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="2:8" s="15" customFormat="1" ht="18.75">
+      <c r="B127" s="108"/>
+      <c r="C127" s="121">
+        <v>4</v>
+      </c>
+      <c r="D127" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="2:8" s="15" customFormat="1" ht="18.75">
+      <c r="B128" s="108"/>
+      <c r="C128" s="77">
+        <v>1</v>
+      </c>
+      <c r="D128" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="2:5" s="15" customFormat="1" ht="18.75">
+      <c r="B129" s="108"/>
+      <c r="C129" s="77">
+        <v>3</v>
+      </c>
+      <c r="D129" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="2:5" s="15" customFormat="1" ht="18.75">
+      <c r="B130" s="108"/>
+      <c r="C130" s="77">
         <v>2</v>
       </c>
-      <c r="D122" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="50"/>
-    </row>
-    <row r="123" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="C123" s="77">
-        <v>1</v>
-      </c>
-      <c r="D123" s="124" t="s">
-        <v>82</v>
-      </c>
-      <c r="E123" s="11"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-    </row>
-    <row r="124" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="C124" s="77">
-        <v>1</v>
-      </c>
-      <c r="D124" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="11"/>
-    </row>
-    <row r="125" spans="2:8" s="15" customFormat="1" ht="18.75">
-      <c r="B125" s="109"/>
-      <c r="C125" s="122">
-        <v>1</v>
-      </c>
-      <c r="D125" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="E125" s="11"/>
-    </row>
-    <row r="126" spans="2:8" s="15" customFormat="1" ht="18.75">
-      <c r="B126" s="109"/>
-      <c r="C126" s="78">
-        <f>SUM(C111:C125)</f>
-        <v>16</v>
-      </c>
-      <c r="D126" s="124"/>
-      <c r="E126" s="11"/>
-    </row>
-    <row r="127" spans="2:8" s="15" customFormat="1" ht="18.75">
-      <c r="B127" s="109"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="11"/>
-    </row>
-    <row r="128" spans="2:8" s="15" customFormat="1" ht="18.75">
-      <c r="B128" s="109"/>
-      <c r="C128" s="77">
-        <v>1</v>
-      </c>
-      <c r="D128" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B129" s="109"/>
-      <c r="C129" s="122">
-        <v>4</v>
-      </c>
-      <c r="D129" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="E129" s="6"/>
-    </row>
-    <row r="130" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B130" s="109"/>
-      <c r="C130" s="77">
-        <v>1</v>
-      </c>
-      <c r="D130" s="124" t="s">
-        <v>75</v>
+      <c r="D130" s="123" t="s">
+        <v>77</v>
       </c>
       <c r="E130" s="6"/>
     </row>
     <row r="131" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B131" s="109"/>
-      <c r="C131" s="77">
-        <v>3</v>
-      </c>
-      <c r="D131" s="124" t="s">
-        <v>76</v>
-      </c>
+      <c r="B131" s="108"/>
+      <c r="C131" s="78">
+        <f>SUM(C126:C130)</f>
+        <v>11</v>
+      </c>
+      <c r="D131" s="123"/>
       <c r="E131" s="6"/>
     </row>
     <row r="132" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B132" s="109"/>
-      <c r="C132" s="77">
-        <v>2</v>
-      </c>
-      <c r="D132" s="124" t="s">
-        <v>77</v>
-      </c>
+      <c r="B132" s="108"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B133" s="109"/>
-      <c r="C133" s="78">
-        <f>SUM(C128:C132)</f>
-        <v>11</v>
-      </c>
-      <c r="D133" s="124"/>
+      <c r="B133" s="108"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="11"/>
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B134" s="109"/>
+      <c r="B134" s="108"/>
       <c r="C134" s="2"/>
       <c r="D134" s="11"/>
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B135" s="109"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="11"/>
+      <c r="B135" s="108"/>
+      <c r="C135" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135" s="112" t="s">
+        <v>166</v>
+      </c>
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B136" s="109"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="11"/>
+      <c r="B136" s="108"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="112" t="s">
+        <v>167</v>
+      </c>
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B137" s="109"/>
-      <c r="C137" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D137" s="113" t="s">
+      <c r="B137" s="108"/>
+      <c r="C137" s="113"/>
+      <c r="D137" s="112" t="s">
         <v>168</v>
       </c>
       <c r="E137" s="6"/>
     </row>
     <row r="138" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B138" s="109"/>
-      <c r="C138" s="114"/>
-      <c r="D138" s="113" t="s">
+      <c r="B138" s="108"/>
+      <c r="C138" s="113"/>
+      <c r="D138" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="2:5" s="15" customFormat="1" ht="18.75">
+      <c r="B139" s="108"/>
+      <c r="C139" s="113"/>
+      <c r="D139" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="2:5" s="15" customFormat="1" ht="18.75">
+      <c r="B140" s="108"/>
+      <c r="C140" s="113"/>
+      <c r="D140" s="112"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="2:5" s="15" customFormat="1" ht="18.75">
+      <c r="B141" s="108"/>
+      <c r="C141" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="D141" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="E138" s="6"/>
-    </row>
-    <row r="139" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B139" s="109"/>
-      <c r="C139" s="114"/>
-      <c r="D139" s="113" t="s">
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="2:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B142" s="108"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="E139" s="6"/>
-    </row>
-    <row r="140" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B140" s="109"/>
-      <c r="C140" s="114"/>
-      <c r="D140" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="E140" s="6"/>
-    </row>
-    <row r="141" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B141" s="109"/>
-      <c r="C141" s="114"/>
-      <c r="D141" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="E141" s="6"/>
-    </row>
-    <row r="142" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B142" s="109"/>
-      <c r="C142" s="114"/>
-      <c r="D142" s="113"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="2:5" s="15" customFormat="1" ht="18.75">
-      <c r="B143" s="109"/>
-      <c r="C143" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="D143" s="116" t="s">
+    <row r="143" spans="2:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B143" s="108"/>
+      <c r="C143" s="114"/>
+      <c r="D143" s="115" t="s">
         <v>171</v>
       </c>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="2:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="109"/>
-      <c r="C144" s="115"/>
-      <c r="D144" s="116" t="s">
-        <v>172</v>
-      </c>
+    <row r="144" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="C144" s="17"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="2:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="109"/>
-      <c r="C145" s="115"/>
-      <c r="D145" s="116" t="s">
-        <v>173</v>
-      </c>
+    <row r="145" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C145" s="17"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C146" s="17"/>
-      <c r="D146" s="18"/>
+    <row r="146" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C146" s="19"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C147" s="17"/>
-      <c r="D147" s="18"/>
+    <row r="147" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C147" s="19"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C148" s="19"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-    </row>
-    <row r="149" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C149" s="19"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-    </row>
-    <row r="152" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C152" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="D152" s="16"/>
+    <row r="148" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="150" spans="3:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C150" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="D150" s="16"/>
+      <c r="E150" s="15"/>
+    </row>
+    <row r="151" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C151" s="127"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+    </row>
+    <row r="152" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C152" s="127"/>
+      <c r="D152" s="15"/>
       <c r="E152" s="15"/>
     </row>
-    <row r="153" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C153" s="128"/>
+    <row r="153" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C153" s="127"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
     </row>
-    <row r="154" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C154" s="128"/>
-      <c r="D154" s="15"/>
+    <row r="154" spans="3:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C154" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154" s="16"/>
       <c r="E154" s="15"/>
     </row>
-    <row r="155" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C155" s="128"/>
+    <row r="155" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C155" s="127"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
     </row>
-    <row r="156" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C156" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="D156" s="16"/>
+    <row r="156" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C156" s="127"/>
+      <c r="D156" s="15"/>
       <c r="E156" s="15"/>
     </row>
-    <row r="157" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C157" s="128"/>
+    <row r="157" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C157" s="127"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
     </row>
-    <row r="158" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C158" s="128"/>
+    <row r="158" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C158" s="127"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
     </row>
-    <row r="159" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C159" s="128"/>
+    <row r="159" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C159" s="127"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
     </row>
-    <row r="160" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="C160" s="128"/>
-      <c r="D160" s="15"/>
+    <row r="160" spans="3:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C160" s="127" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" s="16"/>
       <c r="E160" s="15"/>
     </row>
     <row r="161" spans="3:5" ht="20.100000000000001" customHeight="1">
-      <c r="C161" s="128"/>
+      <c r="C161" s="127"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
     </row>
-    <row r="162" spans="3:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C162" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="D162" s="16"/>
+    <row r="162" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C162" s="127"/>
+      <c r="D162" s="15"/>
       <c r="E162" s="15"/>
     </row>
     <row r="163" spans="3:5" ht="20.100000000000001" customHeight="1">
       <c r="C163" s="128"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-    </row>
-    <row r="164" spans="3:5" ht="20.100000000000001" customHeight="1">
-      <c r="C164" s="128"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164" spans="3:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C164" s="127" t="s">
+        <v>146</v>
+      </c>
+      <c r="D164" s="16"/>
+      <c r="E164" s="13"/>
     </row>
     <row r="165" spans="3:5" ht="20.100000000000001" customHeight="1">
-      <c r="C165" s="129"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="13"/>
-    </row>
-    <row r="166" spans="3:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C166" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="D166" s="16"/>
-      <c r="E166" s="13"/>
+      <c r="C165" s="126"/>
+    </row>
+    <row r="166" spans="3:5" ht="20.100000000000001" customHeight="1">
+      <c r="C166" s="126"/>
     </row>
     <row r="167" spans="3:5" ht="20.100000000000001" customHeight="1">
-      <c r="C167" s="127"/>
-    </row>
-    <row r="168" spans="3:5" ht="20.100000000000001" customHeight="1">
-      <c r="C168" s="127"/>
-    </row>
-    <row r="169" spans="3:5" ht="20.100000000000001" customHeight="1">
-      <c r="C169" s="127"/>
-    </row>
-    <row r="170" spans="3:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C170" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="D170" s="14"/>
+      <c r="C167" s="126"/>
+    </row>
+    <row r="168" spans="3:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C168" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="D168" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC92-EQUIPO RADIO DISTAL AV  ACERO #2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC92-EQUIPO RADIO DISTAL AV  ACERO #2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D580E93C-F71E-458E-91A3-A28B2EFBA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1749B89-D5AA-4469-BB39-04C8EB9DED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="105" windowWidth="11070" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="255" windowWidth="10365" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="5" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">INQUIORT!$B$1:$H$143</definedName>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="215">
   <si>
     <t>PRECIO TOTAL</t>
   </si>
@@ -1255,7 +1256,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1615,45 +1616,6 @@
       <alignment horizontal="right" vertical="top" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1671,6 +1633,48 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1687,7 +1691,17 @@
     <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="常规_PI2012BMC03" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2062,8 +2076,8 @@
   </sheetPr>
   <dimension ref="B1:J168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2469,20 +2483,20 @@
     <row r="2" spans="2:8" s="15" customFormat="1" ht="21" thickBot="1">
       <c r="B2" s="93"/>
       <c r="C2" s="57"/>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="135"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:8" s="15" customFormat="1" ht="21" thickBot="1">
       <c r="B3" s="94"/>
       <c r="C3" s="58"/>
-      <c r="D3" s="133"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="110" t="s">
         <v>124</v>
       </c>
@@ -2493,24 +2507,24 @@
     <row r="4" spans="2:8" s="15" customFormat="1" ht="21" thickBot="1">
       <c r="B4" s="94"/>
       <c r="C4" s="58"/>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="140"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B5" s="95"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="141" t="s">
+      <c r="D5" s="143"/>
+      <c r="E5" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="142"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -2530,7 +2544,7 @@
       <c r="C7" s="60"/>
       <c r="D7" s="61">
         <f ca="1">NOW()</f>
-        <v>45397.748997916664</v>
+        <v>45398.468355092591</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>40</v>
@@ -2577,10 +2591,10 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="144"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="67" t="s">
         <v>131</v>
       </c>
@@ -3057,7 +3071,7 @@
       <c r="B39" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="145">
+      <c r="C39" s="132">
         <v>190805984</v>
       </c>
       <c r="D39" s="89" t="s">
@@ -3079,7 +3093,7 @@
       <c r="B40" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="132" t="s">
         <v>96</v>
       </c>
       <c r="D40" s="89" t="s">
@@ -3101,7 +3115,7 @@
       <c r="B41" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="146">
+      <c r="C41" s="133">
         <v>221254855</v>
       </c>
       <c r="D41" s="89" t="s">
@@ -3123,7 +3137,7 @@
       <c r="B42" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="147"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="79"/>
       <c r="E42" s="80">
         <f>SUM(E39:E41)</f>
@@ -3137,7 +3151,7 @@
       <c r="B43" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="147">
+      <c r="C43" s="134">
         <v>220545208</v>
       </c>
       <c r="D43" s="79" t="s">
@@ -3159,7 +3173,7 @@
       <c r="B44" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="145" t="s">
+      <c r="C44" s="132" t="s">
         <v>118</v>
       </c>
       <c r="D44" s="79" t="s">
@@ -3181,7 +3195,7 @@
       <c r="B45" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="147" t="s">
+      <c r="C45" s="134" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="79" t="s">
@@ -3203,7 +3217,7 @@
       <c r="B46" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="145">
+      <c r="C46" s="132">
         <v>220546211</v>
       </c>
       <c r="D46" s="79" t="s">
@@ -3224,7 +3238,7 @@
       <c r="B47" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="147">
+      <c r="C47" s="134">
         <v>220546204</v>
       </c>
       <c r="D47" s="79" t="s">
@@ -3246,7 +3260,7 @@
       <c r="B48" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="147" t="s">
+      <c r="C48" s="134" t="s">
         <v>120</v>
       </c>
       <c r="D48" s="79" t="s">
@@ -3268,7 +3282,7 @@
       <c r="B49" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="147" t="s">
+      <c r="C49" s="134" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="79" t="s">
@@ -3291,7 +3305,7 @@
       <c r="B50" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="148"/>
+      <c r="C50" s="135"/>
       <c r="D50" s="82"/>
       <c r="E50" s="83">
         <f>SUM(E43:E49)</f>
@@ -3305,7 +3319,7 @@
       <c r="B51" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="145">
+      <c r="C51" s="132">
         <v>221153330</v>
       </c>
       <c r="D51" s="90" t="s">
@@ -3327,7 +3341,7 @@
       <c r="B52" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="145">
+      <c r="C52" s="132">
         <v>221153330</v>
       </c>
       <c r="D52" s="90" t="s">
@@ -3349,7 +3363,7 @@
       <c r="B53" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="145" t="s">
+      <c r="C53" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D53" s="90" t="s">
@@ -3371,7 +3385,7 @@
       <c r="B54" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="145">
+      <c r="C54" s="132">
         <v>2306000650</v>
       </c>
       <c r="D54" s="90" t="s">
@@ -3393,7 +3407,7 @@
       <c r="B55" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="145" t="s">
+      <c r="C55" s="132" t="s">
         <v>212</v>
       </c>
       <c r="D55" s="90" t="s">
@@ -3415,7 +3429,7 @@
       <c r="B56" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="145" t="s">
+      <c r="C56" s="132" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="90" t="s">
@@ -3437,7 +3451,7 @@
       <c r="B57" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="145" t="s">
+      <c r="C57" s="132" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="90" t="s">
@@ -3459,7 +3473,7 @@
       <c r="B58" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="145" t="s">
+      <c r="C58" s="132" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="90" t="s">
@@ -3481,7 +3495,7 @@
       <c r="B59" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="145">
+      <c r="C59" s="132">
         <v>2306000655</v>
       </c>
       <c r="D59" s="90" t="s">
@@ -3503,7 +3517,7 @@
       <c r="B60" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="145">
+      <c r="C60" s="132">
         <v>2306000656</v>
       </c>
       <c r="D60" s="90" t="s">
@@ -3525,7 +3539,7 @@
       <c r="B61" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="145">
+      <c r="C61" s="132">
         <v>2306000657</v>
       </c>
       <c r="D61" s="90" t="s">
@@ -3548,7 +3562,7 @@
       <c r="B62" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="145"/>
+      <c r="C62" s="132"/>
       <c r="D62" s="90"/>
       <c r="E62" s="91">
         <f>SUM(E51:E61)</f>
@@ -3562,7 +3576,7 @@
       <c r="B63" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="145" t="s">
+      <c r="C63" s="132" t="s">
         <v>208</v>
       </c>
       <c r="D63" s="90" t="s">
@@ -3584,7 +3598,7 @@
       <c r="B64" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="145">
+      <c r="C64" s="132">
         <v>220546882</v>
       </c>
       <c r="D64" s="90" t="s">
@@ -3606,7 +3620,7 @@
       <c r="B65" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="C65" s="145" t="s">
+      <c r="C65" s="132" t="s">
         <v>210</v>
       </c>
       <c r="D65" s="90" t="s">
@@ -3623,7 +3637,7 @@
       <c r="B66" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="145" t="s">
+      <c r="C66" s="132" t="s">
         <v>209</v>
       </c>
       <c r="D66" s="90" t="s">
@@ -3646,7 +3660,7 @@
       <c r="B67" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="145" t="s">
+      <c r="C67" s="132" t="s">
         <v>107</v>
       </c>
       <c r="D67" s="90" t="s">
@@ -3668,7 +3682,7 @@
       <c r="B68" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="145">
+      <c r="C68" s="132">
         <v>2306000641</v>
       </c>
       <c r="D68" s="90" t="s">
@@ -3690,7 +3704,7 @@
       <c r="B69" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="145" t="s">
+      <c r="C69" s="132" t="s">
         <v>214</v>
       </c>
       <c r="D69" s="90" t="s">
@@ -3712,7 +3726,7 @@
       <c r="B70" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="145">
+      <c r="C70" s="132">
         <v>220546886</v>
       </c>
       <c r="D70" s="90" t="s">
@@ -3734,7 +3748,7 @@
       <c r="B71" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="145" t="s">
+      <c r="C71" s="132" t="s">
         <v>111</v>
       </c>
       <c r="D71" s="90" t="s">
@@ -3756,7 +3770,7 @@
       <c r="B72" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="145" t="s">
+      <c r="C72" s="132" t="s">
         <v>113</v>
       </c>
       <c r="D72" s="90" t="s">
@@ -3778,7 +3792,7 @@
       <c r="B73" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="145" t="s">
+      <c r="C73" s="132" t="s">
         <v>116</v>
       </c>
       <c r="D73" s="90" t="s">
@@ -3800,7 +3814,7 @@
       <c r="B74" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="149">
+      <c r="C74" s="136">
         <v>2306000647</v>
       </c>
       <c r="D74" s="90" t="s">
@@ -3815,7 +3829,7 @@
     </row>
     <row r="75" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B75" s="104"/>
-      <c r="C75" s="145"/>
+      <c r="C75" s="132"/>
       <c r="D75" s="90"/>
       <c r="E75" s="80">
         <f>SUM(E63:E74)</f>
@@ -3829,7 +3843,7 @@
       <c r="B76" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="145">
+      <c r="C76" s="132">
         <v>210431404</v>
       </c>
       <c r="D76" s="90" t="s">
@@ -3851,7 +3865,7 @@
       <c r="B77" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="145">
+      <c r="C77" s="132">
         <v>210936625</v>
       </c>
       <c r="D77" s="90" t="s">
@@ -3873,7 +3887,7 @@
       <c r="B78" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="145">
+      <c r="C78" s="132">
         <v>201023154</v>
       </c>
       <c r="D78" s="90" t="s">
@@ -3895,7 +3909,7 @@
       <c r="B79" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="145">
+      <c r="C79" s="132">
         <v>2308003047</v>
       </c>
       <c r="D79" s="90" t="s">
@@ -3915,7 +3929,7 @@
     </row>
     <row r="80" spans="2:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B80" s="104"/>
-      <c r="C80" s="145"/>
+      <c r="C80" s="132"/>
       <c r="D80" s="90"/>
       <c r="E80" s="80">
         <f>SUM(E76:E79)</f>
@@ -4005,10 +4019,10 @@
     </row>
     <row r="88" spans="2:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B88" s="108"/>
-      <c r="C88" s="136" t="s">
+      <c r="C88" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="D88" s="136"/>
+      <c r="D88" s="141"/>
       <c r="E88" s="3"/>
       <c r="F88" s="41"/>
       <c r="G88" s="46"/>
@@ -4753,7 +4767,7 @@
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="B43:B49">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4763,4 +4777,788 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D243A4-07F8-4D7B-9D76-B2B425B8AA14}">
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="150" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="150">
+        <v>200113948</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="150" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="150" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D7:D10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="150">
+        <v>200112891</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="150">
+        <v>200112893</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D12:D15)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="150">
+        <v>190805984</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="150">
+        <v>221254855</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D17:D19)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="150">
+        <v>220545208</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="150" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="150">
+        <v>220546211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="150">
+        <v>220546204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D21:D27)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="150">
+        <v>221153330</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="150">
+        <v>221153330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="150" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="150">
+        <v>2306000650</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="150" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="150">
+        <v>2306000655</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="150">
+        <v>2306000656</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="150">
+        <v>2306000657</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40">
+        <f>SUM(D29:D39)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="150">
+        <v>220546882</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="150">
+        <v>2306000641</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="150">
+        <v>220546886</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="150" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="150" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="150">
+        <v>2306000647</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="D53">
+        <f>SUM(D41:D52)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="150">
+        <v>210431404</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="150">
+        <v>210936625</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="150">
+        <v>201023154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="150">
+        <v>2308003047</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A21:A27">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>